--- a/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/30/Output_22_31.xlsx
+++ b/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/30/Output_22_31.xlsx
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>60793.19142316611</v>
+        <v>12079545.86651787</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>60793.19142316611</v>
+        <v>12079545.86651787</v>
       </c>
     </row>
     <row r="9">
@@ -531,7 +531,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>23898.29013740372</v>
+        <v>3180367.624482483</v>
       </c>
     </row>
     <row r="10">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>23898.29013740372</v>
+        <v>3180367.624482483</v>
       </c>
     </row>
     <row r="11">
@@ -561,7 +561,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1495894862.425355</v>
+        <v>59866338.09800117</v>
       </c>
     </row>
   </sheetData>
@@ -26131,7 +26131,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>12910.20362827141</v>
+        <v>1435535.428126682</v>
       </c>
     </row>
     <row r="3">
@@ -26139,7 +26139,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>24491.5963189001</v>
+        <v>2662684.605981525</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26147,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>36072.98900952878</v>
+        <v>3889833.78383637</v>
       </c>
     </row>
     <row r="5">
@@ -26155,7 +26155,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>48728.48381109743</v>
+        <v>4972983.112173457</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26163,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>60402.62291771908</v>
+        <v>6193000.96509116</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26171,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>72024.82341279244</v>
+        <v>7419443.782848911</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26179,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>83642.44539922519</v>
+        <v>8647566.604613667</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26187,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>95258.5781665355</v>
+        <v>9875459.218937943</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26195,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>107478.9570463155</v>
+        <v>10951769.7523954</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26203,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>119500.080379023</v>
+        <v>12080259.96433169</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26211,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>131521.2037117305</v>
+        <v>13208750.17626798</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26219,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>143542.3270444381</v>
+        <v>14337240.38820428</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26227,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>155563.4503771456</v>
+        <v>15465730.60014058</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26235,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>167839.0545689326</v>
+        <v>16553047.53663461</v>
       </c>
     </row>
     <row r="16">
@@ -26243,7 +26243,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>182013.1074190347</v>
+        <v>17315755.3497835</v>
       </c>
     </row>
   </sheetData>
